--- a/flight_data.xlsx
+++ b/flight_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c938b53a75368075/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c938b53a75368075/Documents/GitHub/aviation_dashboard-app/aviation_dashboard-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{32464BEE-A7D8-44DC-A30C-8FBCAF798257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{16BA9DC0-FB66-4C4A-BFBD-E398B506C812}"/>
+    <workbookView xWindow="3900" yWindow="3624" windowWidth="17280" windowHeight="8964" xr2:uid="{16BA9DC0-FB66-4C4A-BFBD-E398B506C812}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
